--- a/results/tests_results/df_tests_results_all.xlsx
+++ b/results/tests_results/df_tests_results_all.xlsx
@@ -509,16 +509,16 @@
         <v>0.001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.6150793650793651</v>
       </c>
       <c r="H2" t="n">
-        <v>0.64</v>
+        <v>0.6755852842809364</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7938931297709924</v>
+        <v>0.7709923664122137</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5360824742268041</v>
+        <v>0.6011904761904762</v>
       </c>
     </row>
   </sheetData>

--- a/results/tests_results/df_tests_results_all.xlsx
+++ b/results/tests_results/df_tests_results_all.xlsx
@@ -509,16 +509,16 @@
         <v>0.001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6150793650793651</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6755852842809364</v>
+        <v>0.7042253521126761</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7709923664122137</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6011904761904762</v>
+        <v>0.6535947712418301</v>
       </c>
     </row>
   </sheetData>

--- a/results/tests_results/df_tests_results_all.xlsx
+++ b/results/tests_results/df_tests_results_all.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>['2016-01-01']</t>
+          <t>['2010-01-01']</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2016-12-31</t>
+          <t>2018-12-31</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -509,16 +509,16 @@
         <v>0.001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6121908127208481</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7042253521126761</v>
+        <v>0.6633435582822086</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7633587786259542</v>
+        <v>0.7032520325203252</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6535947712418301</v>
+        <v>0.627721335268505</v>
       </c>
     </row>
   </sheetData>

--- a/results/tests_results/df_tests_results_all.xlsx
+++ b/results/tests_results/df_tests_results_all.xlsx
@@ -509,16 +509,16 @@
         <v>0.001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6121908127208481</v>
+        <v>0.6360424028268551</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6633435582822086</v>
+        <v>0.6806201550387596</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7032520325203252</v>
+        <v>0.7138211382113822</v>
       </c>
       <c r="J2" t="n">
-        <v>0.627721335268505</v>
+        <v>0.6503703703703704</v>
       </c>
     </row>
   </sheetData>
